--- a/biology/Zoologie/Dalophia/Dalophia.xlsx
+++ b/biology/Zoologie/Dalophia/Dalophia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dalophia est un genre d'amphisbènes de la famille des Amphisbaenidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent dans le sud de l'Afrique.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont apodes.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (25 juil. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (25 juil. 2011) :
 Dalophia angolensis Gans, 1976
 Dalophia ellenbergeri (Angel, 1920)
 Dalophia gigantea (Peracca, 1903)
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Gray, 1865 : A revision of the genera and species of amphisbaenians with the descriptions of some new species now in the collection of the British Museum. Proceedings of the Zoological Society of London vol. 1865, p. 442-455 (texte intégral).</t>
         </is>
